--- a/biology/Médecine/Apalutamide/Apalutamide.xlsx
+++ b/biology/Médecine/Apalutamide/Apalutamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'apalutamide est une molécule de la classe des antiandrogènes non stéroïdiens, en cours de test dans le traitement du cancer de la prostate.
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe de manière compétitive sur le récepteur des androgènes, inhibant son activité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe de manière compétitive sur le récepteur des androgènes, inhibant son activité.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cancer de la prostate évolutif malgré la castration, il retarde l'apparition de métastases ainsi que la progression des symptômes[3].
-Une étude récente (2021), randomisée, en double aveugle, contrôlée par placebo, de phase 3, multicentrique, ayant impliqué 167 centres dans 17 pays situés aux États-Unis, au Canada, au Mexique, en Europe, en Asie, en Afrique et en Amérique du Sud) où 490 patients ont été traités par abiratérone/prednisone et compararés à 498 autrespatients traités par abiratérone/prednisone plus apalutamide a montré que l'ajout (initial) d'apalutamide augmente très significativement les chances de survie du patient victime d'un carcinome prostatique hormonorésistant, en bloquant la progression du cancer[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cancer de la prostate évolutif malgré la castration, il retarde l'apparition de métastases ainsi que la progression des symptômes.
+Une étude récente (2021), randomisée, en double aveugle, contrôlée par placebo, de phase 3, multicentrique, ayant impliqué 167 centres dans 17 pays situés aux États-Unis, au Canada, au Mexique, en Europe, en Asie, en Afrique et en Amérique du Sud) où 490 patients ont été traités par abiratérone/prednisone et compararés à 498 autrespatients traités par abiratérone/prednisone plus apalutamide a montré que l'ajout (initial) d'apalutamide augmente très significativement les chances de survie du patient victime d'un carcinome prostatique hormonorésistant, en bloquant la progression du cancer.
 </t>
         </is>
       </c>
